--- a/Case_data/case_xy_huawei.xlsx
+++ b/Case_data/case_xy_huawei.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>case_id</t>
   </si>
@@ -51,44 +51,112 @@
     <t>result</t>
   </si>
   <si>
-    <t>正确下载加速历史</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
-    <t>/api/v1/xyhw/AccHistoryInfo</t>
-  </si>
-  <si>
-    <t>{"userid":1650000000,"pflag":2,"time":156897156,"sign":"8abb2f1c5f0b0271a38ed82c8472fc09","gameId":23646,"queryNum":10}</t>
-  </si>
-  <si>
     <t>{"status":0}</t>
   </si>
   <si>
-    <t>{'status': 0, 'msg': 'success', 'time': 1569219661, 'sign': 'b4aeba2d2739e7c13c5f32cf7e59889b', 'gameLogoUrl': 'http://download.xunyou.com/gamelogo2014/', 'data': [{'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}, {'deviceName': '华为', 'deviceBrand': 'huawei', 'mac': ['14:B3:1F:03:40:DF', '00:0c:29:c5:45:1d'], 'gameId': 23646, 'gameName': '绝地求生', 'gameType': 'PC', 'iconType': '路由器', 'interfaceType': '有线', 'acceleteTime': 0, 'date': '', 'averageDelay': 0, 'packetLoss': 6, 'stability': 0, 'speedUp': 100}]}</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>传入超长的userid参数值的下载加速历史</t>
-  </si>
-  <si>
-    <t>{"userid":5646523131568956165,"pflag":2,"time":156897156,"sign":"8abb2f1c5f0b0271a38ed82c8472fc09","gameId":23646,"queryNum":10}</t>
-  </si>
-  <si>
-    <t>{"status":2}</t>
-  </si>
-  <si>
-    <t>{'status': 2, 'msg': 'mssql: 从数据类型 numeric 转换为 int 时出错。', 'time': 1569219662, 'sign': '3b8f5332763127a80f904407c2d2707b'}</t>
+    <t>正确获取节点列表</t>
+  </si>
+  <si>
+    <t>/api/v1/xyhw/GetNodeList</t>
+  </si>
+  <si>
+    <t>{"userid":1650000000,"gameId":23646,"isp2p":1,"fouter":1,"time":156897156,"sign":"8abb2f1c5f0b0271a38ed82c8472fc09"}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'msg': 'success', 'time': 1568796899, 'sign': '123adfd8', 'data': {'username': 'E018_0', 'password': 'A04926', 'node': [{'fid': 761, 'nodeip': '132.232.170.16'}, {'fid': 761, 'nodeip': '47.110.72.145'}, {'fid': 762, 'nodeip': '132.232.128.194'}, {'fid': 763, 'nodeip': '129.28.61.27'}]}}</t>
+  </si>
+  <si>
+    <r>
+      <t>传入不存在的u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>serid值</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"userid":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1651111100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"gameId":23646,"isp2p":1,"fouter":1,"time":156897156,"sign":"8abb2f1c5f0b0271a38ed82c8472fc09"}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': 'struct { Userid int "json:\\"userid\\""; GameId int "json:\\"gameId\\""; Isp2p int "json:\\"isp2p\\""; Fouter int "json:\\"fouter\\""; Time int64 "json:\\"time\\""; Sign main.LocalString "json:\\"sign\\"" }.Userid: readUint64: unexpected character: �, error found in #10 byte of ...|userid": "", "gameId|..., bigger context ...|{"userid": "", "gameId": 23646, "isp2p": 1, "fouter": 1, "time|...'}</t>
+  </si>
+  <si>
+    <t>不传入userid参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"gameId":23646,"isp2p":1,"fouter":1,"time":156897156,"sign":"8abb2f1c5f0b0271a38ed82c8472fc09"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入错误的userid类型（字符串）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userid":"xzkgmxmjdnkxzmxhfzkxxbmxbsbxmzbxh","gameId":23646,"isp2p":1,"fouter":1,"time":156897156,"sign":"8abb2f1c5f0b0271a38ed82c8472fc09"}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': 'struct { Userid int "json:\\"userid\\""; GameId int "json:\\"gameId\\""; Isp2p int "json:\\"isp2p\\""; Fouter int "json:\\"fouter\\""; Time int64 "json:\\"time\\""; Sign main.LocalString "json:\\"sign\\"" }.Userid: readUint64: unexpected character: �, error found in #10 byte of ...|userid": "xzkgmxmjdn|..., bigger context ...|{"userid": "xzkgmxmjdnkxzmxhfzkxxbmxbsbxmzbxh", "gameId": 2364|...'}</t>
+  </si>
+  <si>
+    <t>传入不存在的gameId参数值(大于存在的游戏数量）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userid":1650000000,"gameId":536654,"isp2p":1,"fouter":1,"time":156897156,"sign":"8abb2f1c5f0b0271a38ed82c8472fc09"}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'status': 1, 'msg': 'struct { Userid int "json:\\"userid\\""; GameId int "json:\\"gameId\\""; Isp2p int "json:\\"isp2p\\""; Fouter int "json:\\"fouter\\""; Time int64 "json:\\"time\\""; Sign main.LocalString "json:\\"sign\\"" }.GameId: readUint64: unexpected character: �, error found in #10 byte of ...|gameId": "", "isp2p"|..., bigger context ...|{"userid": 1650000000, "gameId": "", "isp2p": 1, "fouter": 1, "time": 156897156, "si|...'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +201,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,11 +243,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,56 +575,128 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Case_data/case_xy_huawei.xlsx
+++ b/Case_data/case_xy_huawei.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>case_id</t>
   </si>
@@ -150,6 +150,125 @@
   </si>
   <si>
     <t>{'status': 1, 'msg': 'struct { Userid int "json:\\"userid\\""; GameId int "json:\\"gameId\\""; Isp2p int "json:\\"isp2p\\""; Fouter int "json:\\"fouter\\""; Time int64 "json:\\"time\\""; Sign main.LocalString "json:\\"sign\\"" }.GameId: readUint64: unexpected character: �, error found in #10 byte of ...|gameId": "", "isp2p"|..., bigger context ...|{"userid": 1650000000, "gameId": "", "isp2p": 1, "fouter": 1, "time": 156897156, "si|...'}</t>
+  </si>
+  <si>
+    <t>104.52.1.0/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104.52.1.10-104.52.1.50
+104.52.1.51-104.52.1.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104.52.1.0/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.123.1.1-10.123.1.20
+10.123.1.200-10.123.1.223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102.0.0.2-102.255.255.255
+103.0.0.1-103.255.255.254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102.0.0.0/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.0.0.1-102.255.255.200
+103.0.0.1-103.255.255.254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.0.0.0/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102.0.0.2-102.0.1.0
+103.0.0.1-103.255.255.254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152.12.0.3-152.12.255.255
+152.13.0.1-152.13.255.250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152.12.0.0/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152.12.0.1-152.14.255.250
+152.15.0.1-152.15.255.250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152.12.0.0/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152.14.254.1-152.14.255.250
+152.15.1.1-152.15.255.250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.250.96.1-49.250.96.249
+49.250.97.1-49.250.97.254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.250.96.0/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">49.250.96.1-49.250.98.1
+49.250.98.250-49.250.99.254
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.250.96.0/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.250.97.1-49.250.98.1
+49.250.98.250-49.250.99.254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223.255.255.1-223.255.255.200
+223.255.255.211-223.255.255.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223.255.255.0/24</t>
+  </si>
+  <si>
+    <t>223.255.240.1-223.255.254.50
+223.255.255.1-223.255.255.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223.255.240.0/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0.0-1.0.0.55
+1.0.0.70-1.0.0.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0.0/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104.52.1.1-104.52.1.80
+104.52.1.100-104.52.1.230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -230,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -707,13 +829,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>